--- a/target/BalanceUs - Resumo.xlsx
+++ b/target/BalanceUs - Resumo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="44">
   <si>
     <t>Resumo dos Dados</t>
   </si>
@@ -56,82 +56,76 @@
     <t>Gerusa</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>310,93</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0,00</t>
   </si>
   <si>
     <t>Laurise</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
     <t>Valéria</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>179,50</t>
-  </si>
-  <si>
     <t>Procedimentos</t>
   </si>
   <si>
     <t>Caixa</t>
   </si>
   <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
     <t>Cassi</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>946,03</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1975,07</t>
+  </si>
+  <si>
     <t>Embrapa</t>
   </si>
   <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>2020-03-20</t>
+    <t>2020-07-24</t>
   </si>
   <si>
     <t>Unimed</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>17550,17</t>
-  </si>
-  <si>
-    <t>1557,92</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1084,45</t>
-  </si>
-  <si>
-    <t>94,79</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>24193,81</t>
-  </si>
-  <si>
-    <t>2373,04</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2505,63</t>
+    <t>203</t>
+  </si>
+  <si>
+    <t>15918,74</t>
+  </si>
+  <si>
+    <t>1299,77</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>25330,08</t>
+  </si>
+  <si>
+    <t>2319,65</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1362,81</t>
   </si>
   <si>
     <t/>
@@ -140,16 +134,16 @@
     <t>Geral</t>
   </si>
   <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>17861,10</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>24373,31</t>
+    <t>210</t>
+  </si>
+  <si>
+    <t>16864,77</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>27305,15</t>
   </si>
 </sst>
 </file>
@@ -292,10 +286,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -309,13 +303,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -329,392 +323,408 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
